--- a/Templates/0_ExtractionPlate_Template.xlsx
+++ b/Templates/0_ExtractionPlate_Template.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Bisanz_Data/ExtractionPlates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbisanz/bisanzlab/github/OHMC_Colaboratory/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672BCF79-2505-EA47-9F93-97C60B17AB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336E870E-90FF-C74D-8731-004972ED78F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="21600" windowHeight="27280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlateInfo" sheetId="9" r:id="rId1"/>
     <sheet name="Layout" sheetId="8" r:id="rId2"/>
     <sheet name="Concentration_ngul" sheetId="10" r:id="rId3"/>
     <sheet name="List" sheetId="1" r:id="rId4"/>
+    <sheet name="DilutionTemplate" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="275">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -824,7 +825,43 @@
     <t>Concentration_ngul</t>
   </si>
   <si>
-    <t>#Extraction plate layout v0.1</t>
+    <t>#Extraction plate layout v0.11</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>SourcePosition</t>
+  </si>
+  <si>
+    <t>SourceWell</t>
+  </si>
+  <si>
+    <t>DestPosition</t>
+  </si>
+  <si>
+    <t>DestWell</t>
+  </si>
+  <si>
+    <t>SampleConc</t>
+  </si>
+  <si>
+    <t>SampleVolume</t>
+  </si>
+  <si>
+    <t>DiluentVolume</t>
+  </si>
+  <si>
+    <t>#Remove this line before giving to OT2</t>
+  </si>
+  <si>
+    <t>Final Conc (ng/ul):</t>
+  </si>
+  <si>
+    <t>Final Volume (ul):</t>
+  </si>
+  <si>
+    <t>Samples must not be &gt;=25 characters long</t>
   </si>
 </sst>
 </file>
@@ -993,12 +1030,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="4"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="5"/>
       <color theme="1"/>
       <name val="Helvetica"/>
@@ -1016,6 +1047,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1447,9 +1484,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1466,13 +1500,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1483,6 +1517,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1531,7 +1568,17 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="標準 2" xfId="42" xr:uid="{371649E2-9C7A-BF42-8EA4-1B3F558ABFA2}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1921,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DDDCC9B-1FDB-4347-A1A1-F5D30F39D189}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1939,7 +1986,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>207</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1950,10 +1997,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>257</v>
       </c>
       <c r="C3" t="s">
@@ -1961,10 +2008,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>256</v>
       </c>
       <c r="C4" t="s">
@@ -1972,10 +2019,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>258</v>
       </c>
       <c r="C5" t="s">
@@ -1983,10 +2030,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>259</v>
       </c>
       <c r="C6" t="s">
@@ -1994,10 +2041,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>215</v>
       </c>
       <c r="C7" t="s">
@@ -2005,10 +2052,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>253</v>
       </c>
       <c r="C8" t="s">
@@ -2016,52 +2063,52 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
-      <c r="B10" s="18"/>
+      <c r="B10" s="17"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="12"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5"/>
-      <c r="B13" s="13"/>
+      <c r="B13" s="12"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5"/>
-      <c r="B15" s="13"/>
+      <c r="B15" s="12"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:3" ht="71" customHeight="1">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:2" ht="71" customHeight="1">
+      <c r="A18" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="B18" s="19" t="str">
+      <c r="B18" s="18" t="str">
         <f>$B$3&amp; CHAR(10) &amp; $B$7 &amp; CHAR(10) &amp; $B$5  &amp; CHAR(10) &amp; TEXT($B$4,"yyyy-mm-dd")</f>
         <v>Plate ID HERE
 gDNA
@@ -2069,151 +2116,156 @@
 DATE HERE</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="B26" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="B28" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="B29" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="B31" s="4" t="s">
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="4" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="C32" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="C33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="C34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="C35" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="1:4">
+      <c r="B37" s="4" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="C37" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="C38" t="s">
-        <v>236</v>
-      </c>
-      <c r="D38" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="C39" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="C40" t="s">
-        <v>239</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>240</v>
+        <v>237</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" t="s">
         <v>241</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4"/>
-    </row>
     <row r="45" spans="1:4">
-      <c r="B45" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C45" t="s">
-        <v>245</v>
-      </c>
+      <c r="A45" s="4"/>
     </row>
     <row r="46" spans="1:4">
       <c r="B46" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>249</v>
       </c>
     </row>
@@ -2244,10 +2296,10 @@
         <f>PlateInfo!B3</f>
         <v>Plate ID HERE</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="11" t="str">
+      <c r="F1" s="10" t="str">
         <f>TEXT(PlateInfo!$B$4,"yyyy-mm-dd")</f>
         <v>DATE HERE</v>
       </c>
@@ -2296,40 +2348,40 @@
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2337,40 +2389,40 @@
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2378,40 +2430,40 @@
       <c r="A5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2419,40 +2471,40 @@
       <c r="A6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="16" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2460,40 +2512,40 @@
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="16" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2501,40 +2553,40 @@
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="16" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2542,40 +2594,40 @@
       <c r="A9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="16" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2583,40 +2635,40 @@
       <c r="A10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="16" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2662,18 +2714,18 @@
     <row r="60" ht="68" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="B3:B6 H3:H6 C4:G6">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Zymo">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Zymo">
       <formula>NOT(ISERROR(SEARCH("Zymo",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" stopIfTrue="1" operator="containsText" text="NTC">
+    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="NTC">
       <formula>NOT(ISERROR(SEARCH("NTC",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="ExtCon">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="ExtCon">
       <formula>NOT(ISERROR(SEARCH("ExtCon",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:M10">
-    <cfRule type="containsText" dxfId="4" priority="8" stopIfTrue="1" operator="containsText" text="Empty_">
+    <cfRule type="containsText" dxfId="5" priority="8" stopIfTrue="1" operator="containsText" text="Empty_">
       <formula>NOT(ISERROR(SEARCH("Empty_",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2687,7 +2739,7 @@
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2747,137 +2799,137 @@
       <c r="A3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
     </row>
     <row r="4" spans="1:13" ht="68" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" ht="68" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" spans="1:13" ht="68" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="68" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="68" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" spans="1:13" ht="68" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" spans="1:13" ht="68" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="13" spans="1:13" ht="68" customHeight="1"/>
     <row r="14" spans="1:13" ht="68" customHeight="1"/>
@@ -2921,16 +2973,16 @@
     <row r="60" ht="68" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="B3:M10">
-    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Zymo">
+    <cfRule type="containsText" dxfId="4" priority="1" stopIfTrue="1" operator="containsText" text="Zymo">
       <formula>NOT(ISERROR(SEARCH("Zymo",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="NTC">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="NTC">
       <formula>NOT(ISERROR(SEARCH("NTC",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="ExtCon">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="ExtCon">
       <formula>NOT(ISERROR(SEARCH("ExtCon",B3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" stopIfTrue="1" operator="containsText" text="Empty_">
+    <cfRule type="containsText" dxfId="1" priority="4" stopIfTrue="1" operator="containsText" text="Empty_">
       <formula>NOT(ISERROR(SEARCH("Empty_",B3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4217,4 +4269,2959 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891E4614-5858-6F4D-94E6-C1F3892468D1}">
+  <dimension ref="A1:H98"/>
+  <sheetViews>
+    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="str">
+        <f>Layout!$B$3</f>
+        <v>Empty_A1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>Concentration_ngul!$B$3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="e">
+        <f>$E$1*$H$1/F3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H3" t="e">
+        <f>$H$1-G3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="str">
+        <f>Layout!$B$4</f>
+        <v>Empty_B1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>Concentration_ngul!$B$4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" ref="G4:G67" si="0">$E$1*$H$1/F4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" t="e">
+        <f t="shared" ref="H4:H67" si="1">$H$1-G4</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="str">
+        <f>Layout!$B$5</f>
+        <v>Empty_C1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>Concentration_ngul!$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="str">
+        <f>Layout!$B$6</f>
+        <v>Empty_D1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>Concentration_ngul!$B$6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="str">
+        <f>Layout!$B$7</f>
+        <v>Empty_E1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>Concentration_ngul!$B$7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="str">
+        <f>Layout!$B$8</f>
+        <v>Empty_F1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>Concentration_ngul!$B$8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="str">
+        <f>Layout!$B$9</f>
+        <v>Empty_G1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f>Concentration_ngul!$B$9</f>
+        <v>0</v>
+      </c>
+      <c r="G9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="str">
+        <f>Layout!$B$10</f>
+        <v>Empty_H1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f>Concentration_ngul!$B$10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="str">
+        <f>Layout!$C$3</f>
+        <v>Empty_A2</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f>Concentration_ngul!$C$3</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="str">
+        <f>Layout!$C$4</f>
+        <v>Empty_B2</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <f>Concentration_ngul!$C$4</f>
+        <v>0</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="str">
+        <f>Layout!$C$5</f>
+        <v>Empty_C2</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <f>Concentration_ngul!$C$5</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="str">
+        <f>Layout!$C$6</f>
+        <v>Empty_D2</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <f>Concentration_ngul!$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="str">
+        <f>Layout!$C$7</f>
+        <v>Empty_E2</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <f>Concentration_ngul!$C$7</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="str">
+        <f>Layout!$C$8</f>
+        <v>Empty_F2</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f>Concentration_ngul!$C$8</f>
+        <v>0</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="str">
+        <f>Layout!$C$9</f>
+        <v>Empty_G2</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <f>Concentration_ngul!$C$9</f>
+        <v>0</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="str">
+        <f>Layout!$C$10</f>
+        <v>Empty_H2</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <f>Concentration_ngul!$C$10</f>
+        <v>0</v>
+      </c>
+      <c r="G18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="str">
+        <f>Layout!$D$3</f>
+        <v>Empty_A3</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <f>Concentration_ngul!$D$3</f>
+        <v>0</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="str">
+        <f>Layout!$D$4</f>
+        <v>Empty_B3</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <f>Concentration_ngul!$D$4</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="str">
+        <f>Layout!$D$5</f>
+        <v>Empty_C3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <f>Concentration_ngul!$D$5</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="str">
+        <f>Layout!$D$6</f>
+        <v>Empty_D3</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22">
+        <f>Concentration_ngul!$D$6</f>
+        <v>0</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="str">
+        <f>Layout!$D$7</f>
+        <v>Empty_E3</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23">
+        <f>Concentration_ngul!$D$7</f>
+        <v>0</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="str">
+        <f>Layout!$D$8</f>
+        <v>Empty_F3</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24">
+        <f>Concentration_ngul!$D$8</f>
+        <v>0</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="str">
+        <f>Layout!$D$9</f>
+        <v>Empty_G3</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <f>Concentration_ngul!$D$9</f>
+        <v>0</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="str">
+        <f>Layout!$D$10</f>
+        <v>Empty_H3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <f>Concentration_ngul!$D$10</f>
+        <v>0</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="str">
+        <f>Layout!$E$3</f>
+        <v>Empty_A4</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27">
+        <f>Concentration_ngul!$E$3</f>
+        <v>0</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="str">
+        <f>Layout!$E$4</f>
+        <v>Empty_B4</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28">
+        <f>Concentration_ngul!$E$4</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="str">
+        <f>Layout!$E$5</f>
+        <v>Empty_C4</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <f>Concentration_ngul!$E$5</f>
+        <v>0</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="str">
+        <f>Layout!$E$6</f>
+        <v>Empty_D4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <f>Concentration_ngul!$E$6</f>
+        <v>0</v>
+      </c>
+      <c r="G30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="str">
+        <f>Layout!$E$7</f>
+        <v>Empty_E4</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <f>Concentration_ngul!$E$7</f>
+        <v>0</v>
+      </c>
+      <c r="G31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="str">
+        <f>Layout!$E$8</f>
+        <v>Empty_F4</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <f>Concentration_ngul!$E$8</f>
+        <v>0</v>
+      </c>
+      <c r="G32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="str">
+        <f>Layout!$E$9</f>
+        <v>Empty_G4</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <f>Concentration_ngul!$E$9</f>
+        <v>0</v>
+      </c>
+      <c r="G33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="str">
+        <f>Layout!$E$10</f>
+        <v>Empty_H4</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34">
+        <f>Concentration_ngul!$E$10</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="str">
+        <f>Layout!$F$3</f>
+        <v>Empty_A5</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <f>Concentration_ngul!$F$3</f>
+        <v>0</v>
+      </c>
+      <c r="G35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="str">
+        <f>Layout!$F$4</f>
+        <v>Empty_B5</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <f>Concentration_ngul!$F$4</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="str">
+        <f>Layout!$F$5</f>
+        <v>Empty_C5</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <f>Concentration_ngul!$F$5</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="str">
+        <f>Layout!$F$6</f>
+        <v>Empty_D5</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <f>Concentration_ngul!$F$6</f>
+        <v>0</v>
+      </c>
+      <c r="G38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="str">
+        <f>Layout!$F$7</f>
+        <v>Empty_E5</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <f>Concentration_ngul!$F$7</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="str">
+        <f>Layout!$F$8</f>
+        <v>Empty_F5</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <f>Concentration_ngul!$F$8</f>
+        <v>0</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="str">
+        <f>Layout!$F$9</f>
+        <v>Empty_G5</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <f>Concentration_ngul!$F$9</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="str">
+        <f>Layout!$F$10</f>
+        <v>Empty_H5</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42">
+        <f>Concentration_ngul!$F$10</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="str">
+        <f>Layout!$G$3</f>
+        <v>Empty_A6</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <f>Concentration_ngul!$G$3</f>
+        <v>0</v>
+      </c>
+      <c r="G43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="str">
+        <f>Layout!$G$4</f>
+        <v>Empty_B6</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44">
+        <f>Concentration_ngul!$G$4</f>
+        <v>0</v>
+      </c>
+      <c r="G44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="str">
+        <f>Layout!$G$5</f>
+        <v>Empty_C6</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45">
+        <f>Concentration_ngul!$G$5</f>
+        <v>0</v>
+      </c>
+      <c r="G45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="str">
+        <f>Layout!$G$6</f>
+        <v>Empty_D6</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <f>Concentration_ngul!$G$6</f>
+        <v>0</v>
+      </c>
+      <c r="G46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="str">
+        <f>Layout!$G$7</f>
+        <v>Empty_E6</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47">
+        <f>Concentration_ngul!$G$7</f>
+        <v>0</v>
+      </c>
+      <c r="G47" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="str">
+        <f>Layout!$G$8</f>
+        <v>Empty_F6</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48">
+        <f>Concentration_ngul!$G$8</f>
+        <v>0</v>
+      </c>
+      <c r="G48" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="str">
+        <f>Layout!$G$9</f>
+        <v>Empty_G6</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F49">
+        <f>Concentration_ngul!$G$9</f>
+        <v>0</v>
+      </c>
+      <c r="G49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="str">
+        <f>Layout!$G$10</f>
+        <v>Empty_H6</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50">
+        <f>Concentration_ngul!$G$10</f>
+        <v>0</v>
+      </c>
+      <c r="G50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" t="str">
+        <f>Layout!$H$3</f>
+        <v>Empty_A7</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+      <c r="F51">
+        <f>Concentration_ngul!$H$3</f>
+        <v>0</v>
+      </c>
+      <c r="G51" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" t="str">
+        <f>Layout!$H$4</f>
+        <v>Empty_B7</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52">
+        <f>Concentration_ngul!$H$4</f>
+        <v>0</v>
+      </c>
+      <c r="G52" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" t="str">
+        <f>Layout!$H$5</f>
+        <v>Empty_C7</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53">
+        <f>Concentration_ngul!$H$5</f>
+        <v>0</v>
+      </c>
+      <c r="G53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" t="str">
+        <f>Layout!$H$6</f>
+        <v>Empty_D7</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>53</v>
+      </c>
+      <c r="F54">
+        <f>Concentration_ngul!$H$6</f>
+        <v>0</v>
+      </c>
+      <c r="G54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="str">
+        <f>Layout!$H$7</f>
+        <v>Empty_E7</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55">
+        <f>Concentration_ngul!$H$7</f>
+        <v>0</v>
+      </c>
+      <c r="G55" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" t="str">
+        <f>Layout!$H$8</f>
+        <v>Empty_F7</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <f>Concentration_ngul!$H$8</f>
+        <v>0</v>
+      </c>
+      <c r="G56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" t="str">
+        <f>Layout!$H$9</f>
+        <v>Empty_G7</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57">
+        <f>Concentration_ngul!$H$9</f>
+        <v>0</v>
+      </c>
+      <c r="G57" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" t="str">
+        <f>Layout!$H$10</f>
+        <v>Empty_H7</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58">
+        <f>Concentration_ngul!$H$10</f>
+        <v>0</v>
+      </c>
+      <c r="G58" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" t="str">
+        <f>Layout!$I$3</f>
+        <v>Empty_A8</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F59">
+        <f>Concentration_ngul!$I$3</f>
+        <v>0</v>
+      </c>
+      <c r="G59" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" t="str">
+        <f>Layout!$I$4</f>
+        <v>Empty_B8</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60">
+        <f>Concentration_ngul!$I$4</f>
+        <v>0</v>
+      </c>
+      <c r="G60" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" t="str">
+        <f>Layout!$I$5</f>
+        <v>Empty_C8</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61">
+        <f>Concentration_ngul!$I$5</f>
+        <v>0</v>
+      </c>
+      <c r="G61" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" t="str">
+        <f>Layout!$I$6</f>
+        <v>Empty_D8</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>61</v>
+      </c>
+      <c r="F62">
+        <f>Concentration_ngul!$I$6</f>
+        <v>0</v>
+      </c>
+      <c r="G62" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" t="str">
+        <f>Layout!$I$7</f>
+        <v>Empty_E8</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63">
+        <f>Concentration_ngul!$I$7</f>
+        <v>0</v>
+      </c>
+      <c r="G63" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" t="str">
+        <f>Layout!$I$8</f>
+        <v>Empty_F8</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64">
+        <f>Concentration_ngul!$I$8</f>
+        <v>0</v>
+      </c>
+      <c r="G64" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" t="str">
+        <f>Layout!$I$9</f>
+        <v>Empty_G8</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65">
+        <f>Concentration_ngul!$I$9</f>
+        <v>0</v>
+      </c>
+      <c r="G65" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" t="str">
+        <f>Layout!$I$10</f>
+        <v>Empty_H8</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>65</v>
+      </c>
+      <c r="F66">
+        <f>Concentration_ngul!$I$10</f>
+        <v>0</v>
+      </c>
+      <c r="G66" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" t="str">
+        <f>Layout!$J$3</f>
+        <v>Empty_A9</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67">
+        <f>Concentration_ngul!$J$3</f>
+        <v>0</v>
+      </c>
+      <c r="G67" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H67" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" t="str">
+        <f>Layout!$J$4</f>
+        <v>Empty_B9</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>67</v>
+      </c>
+      <c r="F68">
+        <f>Concentration_ngul!$J$4</f>
+        <v>0</v>
+      </c>
+      <c r="G68" t="e">
+        <f t="shared" ref="G68:G98" si="2">$E$1*$H$1/F68</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H68" t="e">
+        <f t="shared" ref="H68:H98" si="3">$H$1-G68</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" t="str">
+        <f>Layout!$J$5</f>
+        <v>Empty_C9</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>68</v>
+      </c>
+      <c r="F69">
+        <f>Concentration_ngul!$J$5</f>
+        <v>0</v>
+      </c>
+      <c r="G69" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H69" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="str">
+        <f>Layout!$J$6</f>
+        <v>Empty_D9</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>69</v>
+      </c>
+      <c r="F70">
+        <f>Concentration_ngul!$J$6</f>
+        <v>0</v>
+      </c>
+      <c r="G70" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H70" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="str">
+        <f>Layout!$J$7</f>
+        <v>Empty_E9</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>70</v>
+      </c>
+      <c r="F71">
+        <f>Concentration_ngul!$J$7</f>
+        <v>0</v>
+      </c>
+      <c r="G71" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H71" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="str">
+        <f>Layout!$J$8</f>
+        <v>Empty_F9</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72">
+        <f>Concentration_ngul!$J$8</f>
+        <v>0</v>
+      </c>
+      <c r="G72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="str">
+        <f>Layout!$J$9</f>
+        <v>Empty_G9</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>72</v>
+      </c>
+      <c r="F73">
+        <f>Concentration_ngul!$J$9</f>
+        <v>0</v>
+      </c>
+      <c r="G73" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="str">
+        <f>Layout!$J$10</f>
+        <v>Empty_H9</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74">
+        <f>Concentration_ngul!$J$10</f>
+        <v>0</v>
+      </c>
+      <c r="G74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H74" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="str">
+        <f>Layout!$K$3</f>
+        <v>Empty_A10</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>74</v>
+      </c>
+      <c r="F75">
+        <f>Concentration_ngul!$K$3</f>
+        <v>0</v>
+      </c>
+      <c r="G75" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H75" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" t="str">
+        <f>Layout!$K$4</f>
+        <v>Empty_B10</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>75</v>
+      </c>
+      <c r="F76">
+        <f>Concentration_ngul!$K$4</f>
+        <v>0</v>
+      </c>
+      <c r="G76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H76" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="str">
+        <f>Layout!$K$5</f>
+        <v>Empty_C10</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>76</v>
+      </c>
+      <c r="F77">
+        <f>Concentration_ngul!$K$5</f>
+        <v>0</v>
+      </c>
+      <c r="G77" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H77" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="str">
+        <f>Layout!$K$6</f>
+        <v>Empty_D10</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>77</v>
+      </c>
+      <c r="F78">
+        <f>Concentration_ngul!$K$6</f>
+        <v>0</v>
+      </c>
+      <c r="G78" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H78" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" t="str">
+        <f>Layout!$K$7</f>
+        <v>Empty_E10</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>78</v>
+      </c>
+      <c r="F79">
+        <f>Concentration_ngul!$K$7</f>
+        <v>0</v>
+      </c>
+      <c r="G79" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H79" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" t="str">
+        <f>Layout!$K$8</f>
+        <v>Empty_F10</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>79</v>
+      </c>
+      <c r="F80">
+        <f>Concentration_ngul!$K$8</f>
+        <v>0</v>
+      </c>
+      <c r="G80" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H80" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" t="str">
+        <f>Layout!$K$9</f>
+        <v>Empty_G10</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81" t="s">
+        <v>80</v>
+      </c>
+      <c r="F81">
+        <f>Concentration_ngul!$K$9</f>
+        <v>0</v>
+      </c>
+      <c r="G81" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H81" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" t="str">
+        <f>Layout!$K$10</f>
+        <v>Empty_H10</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82">
+        <f>Concentration_ngul!$K$10</f>
+        <v>0</v>
+      </c>
+      <c r="G82" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" t="str">
+        <f>Layout!$L$3</f>
+        <v>Empty_A11</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>82</v>
+      </c>
+      <c r="F83">
+        <f>Concentration_ngul!$L$3</f>
+        <v>0</v>
+      </c>
+      <c r="G83" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H83" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" t="str">
+        <f>Layout!$L$4</f>
+        <v>Empty_B11</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>83</v>
+      </c>
+      <c r="F84">
+        <f>Concentration_ngul!$L$4</f>
+        <v>0</v>
+      </c>
+      <c r="G84" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H84" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="str">
+        <f>Layout!$L$5</f>
+        <v>Empty_C11</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>84</v>
+      </c>
+      <c r="F85">
+        <f>Concentration_ngul!$L$5</f>
+        <v>0</v>
+      </c>
+      <c r="G85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H85" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="str">
+        <f>Layout!$L$6</f>
+        <v>Empty_D11</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>85</v>
+      </c>
+      <c r="F86">
+        <f>Concentration_ngul!$L$6</f>
+        <v>0</v>
+      </c>
+      <c r="G86" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H86" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" t="str">
+        <f>Layout!$L$7</f>
+        <v>Empty_E11</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>86</v>
+      </c>
+      <c r="F87">
+        <f>Concentration_ngul!$L$7</f>
+        <v>0</v>
+      </c>
+      <c r="G87" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H87" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" t="str">
+        <f>Layout!$L$8</f>
+        <v>Empty_F11</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88">
+        <f>Concentration_ngul!$L$8</f>
+        <v>0</v>
+      </c>
+      <c r="G88" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" t="str">
+        <f>Layout!$L$9</f>
+        <v>Empty_G11</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>88</v>
+      </c>
+      <c r="F89">
+        <f>Concentration_ngul!$L$9</f>
+        <v>0</v>
+      </c>
+      <c r="G89" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" t="str">
+        <f>Layout!$L$10</f>
+        <v>Empty_H11</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90">
+        <f>Concentration_ngul!$L$10</f>
+        <v>0</v>
+      </c>
+      <c r="G90" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H90" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" t="str">
+        <f>Layout!$M$3</f>
+        <v>Empty_A12</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91">
+        <f>Concentration_ngul!$M$3</f>
+        <v>0</v>
+      </c>
+      <c r="G91" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" t="str">
+        <f>Layout!$M$4</f>
+        <v>Empty_B12</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F92">
+        <f>Concentration_ngul!$M$4</f>
+        <v>0</v>
+      </c>
+      <c r="G92" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H92" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" t="str">
+        <f>Layout!$M$5</f>
+        <v>Empty_C12</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93">
+        <f>Concentration_ngul!$M$5</f>
+        <v>0</v>
+      </c>
+      <c r="G93" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H93" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" t="str">
+        <f>Layout!$M$6</f>
+        <v>Empty_D12</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94">
+        <f>Concentration_ngul!$M$6</f>
+        <v>0</v>
+      </c>
+      <c r="G94" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H94" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" t="str">
+        <f>Layout!$M$7</f>
+        <v>Empty_E12</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>94</v>
+      </c>
+      <c r="F95">
+        <f>Concentration_ngul!$M$7</f>
+        <v>0</v>
+      </c>
+      <c r="G95" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H95" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" t="str">
+        <f>Layout!$M$8</f>
+        <v>Empty_F12</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>95</v>
+      </c>
+      <c r="F96">
+        <f>Concentration_ngul!$M$8</f>
+        <v>0</v>
+      </c>
+      <c r="G96" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H96" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="str">
+        <f>Layout!$M$9</f>
+        <v>Empty_G12</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>96</v>
+      </c>
+      <c r="F97">
+        <f>Concentration_ngul!$M$9</f>
+        <v>0</v>
+      </c>
+      <c r="G97" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H97" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" t="str">
+        <f>Layout!$M$10</f>
+        <v>Empty_H12</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98">
+        <f>Concentration_ngul!$M$10</f>
+        <v>0</v>
+      </c>
+      <c r="G98" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H98" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G3:H98">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="notBetween">
+      <formula>0.3</formula>
+      <formula>20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>